--- a/data/pca/factorExposure/factorExposure_2018-02-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.006841865706919447</v>
+        <v>0.007604347404594558</v>
       </c>
       <c r="C2">
-        <v>0.007027644029806474</v>
+        <v>0.02052883818662813</v>
       </c>
       <c r="D2">
-        <v>-0.02641935401941308</v>
+        <v>0.02545143519421574</v>
       </c>
       <c r="E2">
-        <v>-0.03545157659403522</v>
+        <v>-0.0158562075682217</v>
       </c>
       <c r="F2">
-        <v>-0.06063469382337552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>2.345809225045332e-05</v>
+      </c>
+      <c r="G2">
+        <v>-0.001332018736270557</v>
+      </c>
+      <c r="H2">
+        <v>0.0286805131400441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07695378126899617</v>
+        <v>0.05253757958491841</v>
       </c>
       <c r="C3">
-        <v>0.003191896760340951</v>
+        <v>0.07467476465746502</v>
       </c>
       <c r="D3">
-        <v>-0.003212878067137074</v>
+        <v>0.008770295134042315</v>
       </c>
       <c r="E3">
-        <v>-0.1407916228480088</v>
+        <v>-0.05790661279187076</v>
       </c>
       <c r="F3">
-        <v>-0.2738133950400961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04650324062893959</v>
+      </c>
+      <c r="G3">
+        <v>-0.04272902861460109</v>
+      </c>
+      <c r="H3">
+        <v>0.1155886645256609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04032340366374367</v>
+        <v>0.03512113236492739</v>
       </c>
       <c r="C4">
-        <v>-0.009705441912884003</v>
+        <v>0.06419075941558587</v>
       </c>
       <c r="D4">
-        <v>-0.02979901085640781</v>
+        <v>0.01961731043228195</v>
       </c>
       <c r="E4">
-        <v>0.009145204643701367</v>
+        <v>0.007486349273698344</v>
       </c>
       <c r="F4">
-        <v>-0.05962501242282607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.02469129043681828</v>
+      </c>
+      <c r="G4">
+        <v>-0.04445486708718888</v>
+      </c>
+      <c r="H4">
+        <v>0.03315503456023253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04438050061664117</v>
+        <v>0.01806801410106952</v>
       </c>
       <c r="C6">
-        <v>0.005372403102983653</v>
+        <v>0.06057452979211005</v>
       </c>
       <c r="D6">
-        <v>-0.03356000741591978</v>
+        <v>0.01461784068609343</v>
       </c>
       <c r="E6">
-        <v>0.02043734098632823</v>
+        <v>0.009876923466380111</v>
       </c>
       <c r="F6">
-        <v>-0.03977269616335086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.005840398558309696</v>
+      </c>
+      <c r="G6">
+        <v>-0.02932536431647037</v>
+      </c>
+      <c r="H6">
+        <v>0.03595150729890272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03860501890055966</v>
+        <v>0.003400113763958171</v>
       </c>
       <c r="C7">
-        <v>-0.0683680121703571</v>
+        <v>0.03546049622338723</v>
       </c>
       <c r="D7">
-        <v>-0.007593371764296013</v>
+        <v>0.01198508561822315</v>
       </c>
       <c r="E7">
-        <v>0.005619687622461894</v>
+        <v>0.02025215956011652</v>
       </c>
       <c r="F7">
-        <v>-0.02383403643188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.07501563562128745</v>
+      </c>
+      <c r="G7">
+        <v>-0.007158673192368636</v>
+      </c>
+      <c r="H7">
+        <v>0.0174416772349822</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003197006177900112</v>
+        <v>-0.006233665456202872</v>
       </c>
       <c r="C8">
-        <v>-0.00950781742086467</v>
+        <v>0.003850729390260009</v>
       </c>
       <c r="D8">
-        <v>-0.03228222088481431</v>
+        <v>0.002114030760129719</v>
       </c>
       <c r="E8">
-        <v>0.002319545650168817</v>
+        <v>-0.001735208961826885</v>
       </c>
       <c r="F8">
-        <v>-0.05816074139234036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.01819030387986926</v>
+      </c>
+      <c r="G8">
+        <v>-0.01493525485913133</v>
+      </c>
+      <c r="H8">
+        <v>0.01620542266653851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03272845352168655</v>
+        <v>0.0155420263474392</v>
       </c>
       <c r="C9">
-        <v>-0.007398544695247399</v>
+        <v>0.04547594128563717</v>
       </c>
       <c r="D9">
-        <v>-0.03025123680097761</v>
+        <v>0.01421679668709736</v>
       </c>
       <c r="E9">
-        <v>-0.01770334152358383</v>
+        <v>0.003217855290102682</v>
       </c>
       <c r="F9">
-        <v>-0.06214414396788243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02210717450389968</v>
+      </c>
+      <c r="G9">
+        <v>-0.01413967254796483</v>
+      </c>
+      <c r="H9">
+        <v>0.0357458135951608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04685040516307042</v>
+        <v>0.1256799045096524</v>
       </c>
       <c r="C10">
-        <v>0.005925821974349221</v>
+        <v>-0.1546020236305548</v>
       </c>
       <c r="D10">
-        <v>0.1564039120353056</v>
+        <v>-0.02334636536848133</v>
       </c>
       <c r="E10">
-        <v>-0.07738408226282596</v>
+        <v>-0.03155171737592893</v>
       </c>
       <c r="F10">
-        <v>-0.009095069299027462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.0376940305474457</v>
+      </c>
+      <c r="G10">
+        <v>0.02744067360594912</v>
+      </c>
+      <c r="H10">
+        <v>-0.003454808433760022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03169607861846106</v>
+        <v>0.01387142666449916</v>
       </c>
       <c r="C11">
-        <v>0.007368889410534414</v>
+        <v>0.0480506202187005</v>
       </c>
       <c r="D11">
-        <v>-0.04038448688446917</v>
+        <v>0.0003251670171232994</v>
       </c>
       <c r="E11">
-        <v>0.01822462447845883</v>
+        <v>0.01146824569782099</v>
       </c>
       <c r="F11">
-        <v>-0.02646884604588354</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001604022191302261</v>
+      </c>
+      <c r="G11">
+        <v>-0.01224051029391937</v>
+      </c>
+      <c r="H11">
+        <v>0.04065520252808269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04034941631838387</v>
+        <v>0.01727833929257155</v>
       </c>
       <c r="C12">
-        <v>0.002369294761329124</v>
+        <v>0.04485414759821986</v>
       </c>
       <c r="D12">
-        <v>-0.03502870745676749</v>
+        <v>0.004428421247908292</v>
       </c>
       <c r="E12">
-        <v>0.03121137189684394</v>
+        <v>0.01683254160939058</v>
       </c>
       <c r="F12">
-        <v>-0.008727777293298001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01383424992481796</v>
+      </c>
+      <c r="G12">
+        <v>-0.006824451521261268</v>
+      </c>
+      <c r="H12">
+        <v>0.01789940293221111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01623083292360837</v>
+        <v>0.01151586680496228</v>
       </c>
       <c r="C13">
-        <v>0.01168347004016399</v>
+        <v>0.02129584930664604</v>
       </c>
       <c r="D13">
-        <v>-0.004223943397296965</v>
+        <v>0.02163826489316937</v>
       </c>
       <c r="E13">
-        <v>-0.01705236669123474</v>
+        <v>-0.01406957547952023</v>
       </c>
       <c r="F13">
-        <v>-0.05970227388365652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.005084630744362949</v>
+      </c>
+      <c r="G13">
+        <v>-0.02780400088704926</v>
+      </c>
+      <c r="H13">
+        <v>0.05004329876152637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02139731066443605</v>
+        <v>0.002380215424074017</v>
       </c>
       <c r="C14">
-        <v>-0.0147058938203339</v>
+        <v>0.01907374301259928</v>
       </c>
       <c r="D14">
-        <v>-0.009547328549826066</v>
+        <v>0.007573817738194545</v>
       </c>
       <c r="E14">
-        <v>0.0007022202910564892</v>
+        <v>0.007641484895865777</v>
       </c>
       <c r="F14">
-        <v>-0.04348559601523178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03145653597401286</v>
+      </c>
+      <c r="G14">
+        <v>-0.0101686642209834</v>
+      </c>
+      <c r="H14">
+        <v>0.009665000077108618</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02968863546336006</v>
+        <v>0.01357593708227161</v>
       </c>
       <c r="C16">
-        <v>0.002796370221115408</v>
+        <v>0.04103014344402355</v>
       </c>
       <c r="D16">
-        <v>-0.04104057255128181</v>
+        <v>0.0001721265548717086</v>
       </c>
       <c r="E16">
-        <v>0.01900325164803749</v>
+        <v>0.008927341232762743</v>
       </c>
       <c r="F16">
-        <v>-0.0313526269786065</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.008766583462199702</v>
+      </c>
+      <c r="G16">
+        <v>-0.01162603062672909</v>
+      </c>
+      <c r="H16">
+        <v>0.02765887415462735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03477901423989467</v>
+        <v>0.01601732709618556</v>
       </c>
       <c r="C19">
-        <v>0.004149496645255677</v>
+        <v>0.04205974634450912</v>
       </c>
       <c r="D19">
-        <v>-0.03354515667614414</v>
+        <v>0.01225857144561297</v>
       </c>
       <c r="E19">
-        <v>0.01137324413907974</v>
+        <v>-0.01457671749581289</v>
       </c>
       <c r="F19">
-        <v>-0.08881344621509339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.02299310559182994</v>
+      </c>
+      <c r="G19">
+        <v>-0.03948686213508556</v>
+      </c>
+      <c r="H19">
+        <v>0.04737163428822876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003917195991380259</v>
+        <v>-0.000975535355803198</v>
       </c>
       <c r="C20">
-        <v>-0.01044755515543811</v>
+        <v>0.0188812638012577</v>
       </c>
       <c r="D20">
-        <v>-0.002787830133606233</v>
+        <v>0.01144626560456855</v>
       </c>
       <c r="E20">
-        <v>-0.005764179769380207</v>
+        <v>-0.01037046524066311</v>
       </c>
       <c r="F20">
-        <v>-0.04067812062270999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01830245571995895</v>
+      </c>
+      <c r="G20">
+        <v>-0.02027651483128991</v>
+      </c>
+      <c r="H20">
+        <v>0.02115258622775207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03840090575323593</v>
+        <v>0.003202693819520081</v>
       </c>
       <c r="C21">
-        <v>-0.01886621153348313</v>
+        <v>0.01839604255048092</v>
       </c>
       <c r="D21">
-        <v>-0.0190617266596005</v>
+        <v>0.01435779793443957</v>
       </c>
       <c r="E21">
-        <v>-0.0008620975441823521</v>
+        <v>-0.01254499503673032</v>
       </c>
       <c r="F21">
-        <v>-0.03743376704333291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.04014702752177401</v>
+      </c>
+      <c r="G21">
+        <v>-0.008937479769464676</v>
+      </c>
+      <c r="H21">
+        <v>0.03171297296232838</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02567578581827375</v>
+        <v>0.007643394736315461</v>
       </c>
       <c r="C24">
-        <v>0.003483174980918345</v>
+        <v>0.0396323590987708</v>
       </c>
       <c r="D24">
-        <v>-0.02918684847333893</v>
+        <v>0.005281035490361665</v>
       </c>
       <c r="E24">
-        <v>0.01553193560873893</v>
+        <v>0.01374862778457193</v>
       </c>
       <c r="F24">
-        <v>-0.02512244908633016</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005457075462329081</v>
+      </c>
+      <c r="G24">
+        <v>-0.00855279482299451</v>
+      </c>
+      <c r="H24">
+        <v>0.0337752817897576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03866315618943388</v>
+        <v>0.02355071210609361</v>
       </c>
       <c r="C25">
-        <v>0.005664039566648993</v>
+        <v>0.05123733585953403</v>
       </c>
       <c r="D25">
-        <v>-0.03188793723554204</v>
+        <v>0.008656216070185659</v>
       </c>
       <c r="E25">
-        <v>0.008076831085325335</v>
+        <v>0.0216627889412068</v>
       </c>
       <c r="F25">
-        <v>-0.03870099871165772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01004089794295502</v>
+      </c>
+      <c r="G25">
+        <v>-0.01712806463618111</v>
+      </c>
+      <c r="H25">
+        <v>0.03030936036369518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01616241494121591</v>
+        <v>0.002171197586989119</v>
       </c>
       <c r="C26">
-        <v>-0.008153764691971467</v>
+        <v>0.003492839960872605</v>
       </c>
       <c r="D26">
-        <v>-0.01475545384220656</v>
+        <v>0.0231436730959789</v>
       </c>
       <c r="E26">
-        <v>-0.02836005496186511</v>
+        <v>0.002555065829235058</v>
       </c>
       <c r="F26">
-        <v>-0.03810544615274318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.02189140745958119</v>
+      </c>
+      <c r="G26">
+        <v>0.0015562391505998</v>
+      </c>
+      <c r="H26">
+        <v>0.01190345382930038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01353000492587986</v>
+        <v>0.004514195840278078</v>
       </c>
       <c r="C27">
-        <v>-0.004781568556701417</v>
+        <v>0.002602519805131834</v>
       </c>
       <c r="D27">
-        <v>0.005918526358339857</v>
+        <v>-0.00103338748150152</v>
       </c>
       <c r="E27">
-        <v>0.01197139352530445</v>
+        <v>0.0005219469885508726</v>
       </c>
       <c r="F27">
-        <v>-0.0194039979501462</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.009991869851028568</v>
+      </c>
+      <c r="G27">
+        <v>-0.005636732932551175</v>
+      </c>
+      <c r="H27">
+        <v>-0.003917090221494438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08537018286713169</v>
+        <v>0.17592585497587</v>
       </c>
       <c r="C28">
-        <v>0.01509451532291263</v>
+        <v>-0.1938314929111655</v>
       </c>
       <c r="D28">
-        <v>0.2166126770277706</v>
+        <v>-0.01803697985196774</v>
       </c>
       <c r="E28">
-        <v>-0.0970705536334287</v>
+        <v>-0.02426869638333063</v>
       </c>
       <c r="F28">
-        <v>-0.007670225816984818</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04641037653693941</v>
+      </c>
+      <c r="G28">
+        <v>0.0241784875088401</v>
+      </c>
+      <c r="H28">
+        <v>-0.002573622391492627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0234078766377652</v>
+        <v>0.008961526419751417</v>
       </c>
       <c r="C29">
-        <v>-0.01166315147938872</v>
+        <v>0.01879063051530391</v>
       </c>
       <c r="D29">
-        <v>-0.009317203261756094</v>
+        <v>0.006232418671765943</v>
       </c>
       <c r="E29">
-        <v>0.002573415398848918</v>
+        <v>0.007078986929934757</v>
       </c>
       <c r="F29">
-        <v>-0.04200974524531241</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.0271649001914514</v>
+      </c>
+      <c r="G29">
+        <v>-0.009445535994200106</v>
+      </c>
+      <c r="H29">
+        <v>0.001455000244083025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04535488393189972</v>
+        <v>0.02524613802720262</v>
       </c>
       <c r="C30">
-        <v>0.05277121307842059</v>
+        <v>0.0855635628153734</v>
       </c>
       <c r="D30">
-        <v>-0.06049407193608883</v>
+        <v>0.02459014114253925</v>
       </c>
       <c r="E30">
-        <v>-0.0114794917014199</v>
+        <v>-0.0003028811993723103</v>
       </c>
       <c r="F30">
-        <v>-0.08214481093600216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.02494019932938405</v>
+      </c>
+      <c r="G30">
+        <v>-0.03545152297741841</v>
+      </c>
+      <c r="H30">
+        <v>0.05694556516321748</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05096552240557716</v>
+        <v>0.03124986548900013</v>
       </c>
       <c r="C31">
-        <v>-0.005491887624698084</v>
+        <v>0.02676527666474832</v>
       </c>
       <c r="D31">
-        <v>-0.01228493286773382</v>
+        <v>0.001315525148295063</v>
       </c>
       <c r="E31">
-        <v>0.01223402487820068</v>
+        <v>0.01033100783847993</v>
       </c>
       <c r="F31">
-        <v>-0.02862211086660733</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02659386492191967</v>
+      </c>
+      <c r="G31">
+        <v>0.008616242159657554</v>
+      </c>
+      <c r="H31">
+        <v>-0.01106882151188083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01185859332838305</v>
+        <v>0.004602884514579237</v>
       </c>
       <c r="C32">
-        <v>-0.03267158534022248</v>
+        <v>0.01402097080287178</v>
       </c>
       <c r="D32">
-        <v>-0.0301803433736192</v>
+        <v>-0.007892812599096431</v>
       </c>
       <c r="E32">
-        <v>0.01197621285581538</v>
+        <v>-0.002699323916269543</v>
       </c>
       <c r="F32">
-        <v>-0.05522636562899534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.03533243398748078</v>
+      </c>
+      <c r="G32">
+        <v>-0.05981589572843647</v>
+      </c>
+      <c r="H32">
+        <v>0.06764194799994322</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04192703711983539</v>
+        <v>0.01396398513832664</v>
       </c>
       <c r="C33">
-        <v>0.02268503275305796</v>
+        <v>0.04351299780509516</v>
       </c>
       <c r="D33">
-        <v>-0.03921452364212438</v>
+        <v>0.01224155768111965</v>
       </c>
       <c r="E33">
-        <v>-0.01211869640939012</v>
+        <v>-0.00767132941470806</v>
       </c>
       <c r="F33">
-        <v>-0.05431176247881669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.009108703923265699</v>
+      </c>
+      <c r="G33">
+        <v>0.005379513243280434</v>
+      </c>
+      <c r="H33">
+        <v>0.03792342781390794</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03176850396414814</v>
+        <v>0.02550636325618591</v>
       </c>
       <c r="C34">
-        <v>-0.005843123556601723</v>
+        <v>0.05134726131219627</v>
       </c>
       <c r="D34">
-        <v>-0.03979196442769024</v>
+        <v>-0.007966679452394846</v>
       </c>
       <c r="E34">
-        <v>0.02467146888317483</v>
+        <v>0.02608495924213076</v>
       </c>
       <c r="F34">
-        <v>-0.03260520732879887</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01300690576292658</v>
+      </c>
+      <c r="G34">
+        <v>-0.01600393505335684</v>
+      </c>
+      <c r="H34">
+        <v>0.03334737184365806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01616077698892782</v>
+        <v>0.007244749301099621</v>
       </c>
       <c r="C36">
-        <v>-0.008793063029439904</v>
+        <v>0.001667022572470712</v>
       </c>
       <c r="D36">
-        <v>-0.002669090619097382</v>
+        <v>0.0102641796843232</v>
       </c>
       <c r="E36">
-        <v>-0.005771045835646998</v>
+        <v>0.001633169909715605</v>
       </c>
       <c r="F36">
-        <v>-0.02733645579970393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01805403922221011</v>
+      </c>
+      <c r="G36">
+        <v>0.00230406828731902</v>
+      </c>
+      <c r="H36">
+        <v>0.008282466046061148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02105301292046077</v>
+        <v>0.02554759545042356</v>
       </c>
       <c r="C38">
-        <v>0.001410945238376305</v>
+        <v>0.01687586762471279</v>
       </c>
       <c r="D38">
-        <v>0.002711757872233366</v>
+        <v>-0.01017518315956933</v>
       </c>
       <c r="E38">
-        <v>-0.03236441414769998</v>
+        <v>0.004759727054083297</v>
       </c>
       <c r="F38">
-        <v>-0.03685463080304588</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01592052086978192</v>
+      </c>
+      <c r="G38">
+        <v>-0.006054204666618144</v>
+      </c>
+      <c r="H38">
+        <v>0.01560653301830213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02642825196755898</v>
+        <v>0.0002562634378466069</v>
       </c>
       <c r="C39">
-        <v>-0.002068495020460258</v>
+        <v>0.08256345075509892</v>
       </c>
       <c r="D39">
-        <v>-0.05646171265515942</v>
+        <v>0.0112542227377573</v>
       </c>
       <c r="E39">
-        <v>0.006434421650925307</v>
+        <v>0.008992762746112682</v>
       </c>
       <c r="F39">
-        <v>-0.05620133590002637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.004642967745492522</v>
+      </c>
+      <c r="G39">
+        <v>-0.01824461738746219</v>
+      </c>
+      <c r="H39">
+        <v>0.06410626884295413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01751258040066439</v>
+        <v>0.01671872021047883</v>
       </c>
       <c r="C40">
-        <v>0.03529527141049146</v>
+        <v>0.02476339274015797</v>
       </c>
       <c r="D40">
-        <v>-0.02362628814285378</v>
+        <v>0.009172622511395119</v>
       </c>
       <c r="E40">
-        <v>0.01612757813945246</v>
+        <v>0.001462324703220214</v>
       </c>
       <c r="F40">
-        <v>-0.03339815820099953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02170307363384117</v>
+      </c>
+      <c r="G40">
+        <v>-0.02087809182382424</v>
+      </c>
+      <c r="H40">
+        <v>0.03643229588527889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01478052315912987</v>
+        <v>0.0124716403382834</v>
       </c>
       <c r="C41">
-        <v>-0.003917827112616485</v>
+        <v>-0.00982814651207653</v>
       </c>
       <c r="D41">
-        <v>0.01051057471438509</v>
+        <v>0.002180829680192047</v>
       </c>
       <c r="E41">
-        <v>-0.0162449335375963</v>
+        <v>0.004970378940038693</v>
       </c>
       <c r="F41">
-        <v>-0.004307485174561428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01380698918827034</v>
+      </c>
+      <c r="G41">
+        <v>0.009943847486613162</v>
+      </c>
+      <c r="H41">
+        <v>0.000982169497693051</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2995408473786743</v>
+        <v>0.07371389439637686</v>
       </c>
       <c r="C42">
-        <v>0.1450959006497861</v>
+        <v>0.1746559518735283</v>
       </c>
       <c r="D42">
-        <v>-0.3728794782216718</v>
+        <v>0.1234298305299829</v>
       </c>
       <c r="E42">
-        <v>-0.6378863727263947</v>
+        <v>-0.1380974132602676</v>
       </c>
       <c r="F42">
-        <v>0.542898168353827</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.07694446377950642</v>
+      </c>
+      <c r="G42">
+        <v>0.9322006729823726</v>
+      </c>
+      <c r="H42">
+        <v>0.1827067188321106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01823475037756814</v>
+        <v>0.0149593889629027</v>
       </c>
       <c r="C43">
-        <v>0.0003010110257241192</v>
+        <v>-0.005940353683441579</v>
       </c>
       <c r="D43">
-        <v>0.008148995413363582</v>
+        <v>0.002533925240784422</v>
       </c>
       <c r="E43">
-        <v>-0.01293273468104711</v>
+        <v>0.0004950366239147325</v>
       </c>
       <c r="F43">
-        <v>-0.02068914380752027</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01281406150357295</v>
+      </c>
+      <c r="G43">
+        <v>0.007075526031818977</v>
+      </c>
+      <c r="H43">
+        <v>0.006127229097405761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0205715595924932</v>
+        <v>0.003908916017073017</v>
       </c>
       <c r="C44">
-        <v>-0.01929823807963229</v>
+        <v>0.04334106630427148</v>
       </c>
       <c r="D44">
-        <v>-0.0246995494826973</v>
+        <v>0.005838163991358738</v>
       </c>
       <c r="E44">
-        <v>-0.02771193762863411</v>
+        <v>-0.00694337439755546</v>
       </c>
       <c r="F44">
-        <v>-0.0756132968605414</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.03234982571976537</v>
+      </c>
+      <c r="G44">
+        <v>-0.00751280305780338</v>
+      </c>
+      <c r="H44">
+        <v>0.04981954388586279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02057057827815115</v>
+        <v>-0.0005618578263025017</v>
       </c>
       <c r="C46">
-        <v>-0.003959038001054776</v>
+        <v>0.01023817409025331</v>
       </c>
       <c r="D46">
-        <v>-0.03920973941045588</v>
+        <v>0.01138705205900238</v>
       </c>
       <c r="E46">
-        <v>-0.001307083256434946</v>
+        <v>-0.00185115953848928</v>
       </c>
       <c r="F46">
-        <v>-0.06945466035607274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.0203800408070326</v>
+      </c>
+      <c r="G46">
+        <v>-0.002800941729858739</v>
+      </c>
+      <c r="H46">
+        <v>0.006529667699242432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07317826722425619</v>
+        <v>0.05018379150779983</v>
       </c>
       <c r="C47">
-        <v>0.01450692053186893</v>
+        <v>0.06170617203407857</v>
       </c>
       <c r="D47">
-        <v>-0.01315410322403667</v>
+        <v>-0.007035099872963334</v>
       </c>
       <c r="E47">
-        <v>0.02529580620180228</v>
+        <v>0.01180205535115439</v>
       </c>
       <c r="F47">
-        <v>0.002578539874748703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01925600434797552</v>
+      </c>
+      <c r="G47">
+        <v>0.01379135694685836</v>
+      </c>
+      <c r="H47">
+        <v>-0.04197289910587196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02435311871024945</v>
+        <v>0.01059444499878691</v>
       </c>
       <c r="C48">
-        <v>-0.003114951664429404</v>
+        <v>0.01242044266208814</v>
       </c>
       <c r="D48">
-        <v>-0.009590986063221424</v>
+        <v>0.0006885235001295729</v>
       </c>
       <c r="E48">
-        <v>-0.001597378409336483</v>
+        <v>0.00251203555371354</v>
       </c>
       <c r="F48">
-        <v>-0.02658032332035945</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01686372310243506</v>
+      </c>
+      <c r="G48">
+        <v>-5.280604564759574e-05</v>
+      </c>
+      <c r="H48">
+        <v>0.008318543247150135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08475634199407385</v>
+        <v>0.05704712696218808</v>
       </c>
       <c r="C50">
-        <v>-0.01257236196089146</v>
+        <v>0.05870475528097566</v>
       </c>
       <c r="D50">
-        <v>-0.03408598923876714</v>
+        <v>-0.005970800059074186</v>
       </c>
       <c r="E50">
-        <v>0.02065749773893129</v>
+        <v>0.01316628928417106</v>
       </c>
       <c r="F50">
-        <v>-0.02324217460714174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.0476337469813428</v>
+      </c>
+      <c r="G50">
+        <v>0.01030791110359008</v>
+      </c>
+      <c r="H50">
+        <v>-0.03191387253431707</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01727049555149035</v>
+        <v>0.006738343113683177</v>
       </c>
       <c r="C51">
-        <v>-0.01129274456891883</v>
+        <v>0.01445063147522392</v>
       </c>
       <c r="D51">
-        <v>0.006734044448550827</v>
+        <v>0.006989596994581313</v>
       </c>
       <c r="E51">
-        <v>-0.03329280255124328</v>
+        <v>0.006029800369726341</v>
       </c>
       <c r="F51">
-        <v>-0.07889834165169657</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.02916907751380512</v>
+      </c>
+      <c r="G51">
+        <v>-0.005682905211170826</v>
+      </c>
+      <c r="H51">
+        <v>0.03632055557822812</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1033537004459528</v>
+        <v>0.07184777541949199</v>
       </c>
       <c r="C53">
-        <v>0.01785840305772781</v>
+        <v>0.09271318219462808</v>
       </c>
       <c r="D53">
-        <v>-0.03079012090210724</v>
+        <v>-0.008275479909624095</v>
       </c>
       <c r="E53">
-        <v>0.07134697530335438</v>
+        <v>0.03538983858734476</v>
       </c>
       <c r="F53">
-        <v>0.008914412319037023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.01509708121403881</v>
+      </c>
+      <c r="G53">
+        <v>0.0119542698641167</v>
+      </c>
+      <c r="H53">
+        <v>-0.05178267283732756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02671551322331961</v>
+        <v>0.0199920230753524</v>
       </c>
       <c r="C54">
-        <v>-0.01066637215815208</v>
+        <v>-0.0009754195143498089</v>
       </c>
       <c r="D54">
-        <v>0.007365186597819451</v>
+        <v>-0.005529839091527437</v>
       </c>
       <c r="E54">
-        <v>0.005737465726605728</v>
+        <v>-0.001833375023195969</v>
       </c>
       <c r="F54">
-        <v>-0.03039004895079604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.028632285481586</v>
+      </c>
+      <c r="G54">
+        <v>-0.005156698723470588</v>
+      </c>
+      <c r="H54">
+        <v>-0.0009460061169936262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08503743244939677</v>
+        <v>0.05145018917676823</v>
       </c>
       <c r="C55">
-        <v>0.01773335833806486</v>
+        <v>0.08316020549012942</v>
       </c>
       <c r="D55">
-        <v>-0.05622181964467761</v>
+        <v>-0.005963672231044</v>
       </c>
       <c r="E55">
-        <v>0.04231206823386072</v>
+        <v>0.02332393067153734</v>
       </c>
       <c r="F55">
-        <v>0.01478892729105775</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01008058130830459</v>
+      </c>
+      <c r="G55">
+        <v>0.01878684162805615</v>
+      </c>
+      <c r="H55">
+        <v>-0.04570089736249806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1356054116009349</v>
+        <v>0.1091241585402203</v>
       </c>
       <c r="C56">
-        <v>0.03864652626659894</v>
+        <v>0.1281181193831799</v>
       </c>
       <c r="D56">
-        <v>-0.03574011692139494</v>
+        <v>-0.0179155533332564</v>
       </c>
       <c r="E56">
-        <v>0.1017584554539519</v>
+        <v>0.04199644803217118</v>
       </c>
       <c r="F56">
-        <v>0.0403764988340849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.007078310643587475</v>
+      </c>
+      <c r="G56">
+        <v>0.008687378078961614</v>
+      </c>
+      <c r="H56">
+        <v>-0.08971035641593496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04331153265837003</v>
+        <v>0.01909349982091785</v>
       </c>
       <c r="C57">
-        <v>0.007733832784108218</v>
+        <v>0.02523344562258261</v>
       </c>
       <c r="D57">
-        <v>-0.01979891138548315</v>
+        <v>0.02339717972637197</v>
       </c>
       <c r="E57">
-        <v>-0.04440632375567032</v>
+        <v>-0.02998944582559609</v>
       </c>
       <c r="F57">
-        <v>-0.04204615946444458</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.02462464082415769</v>
+      </c>
+      <c r="G57">
+        <v>-0.01566607941032143</v>
+      </c>
+      <c r="H57">
+        <v>0.05107941076717403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1823642633407311</v>
+        <v>0.06483082235314756</v>
       </c>
       <c r="C58">
-        <v>0.1578841867044338</v>
+        <v>0.1843761394262705</v>
       </c>
       <c r="D58">
-        <v>-0.2164948232630761</v>
+        <v>0.01792279387205064</v>
       </c>
       <c r="E58">
-        <v>-0.2670792517480673</v>
+        <v>-0.9475446481182029</v>
       </c>
       <c r="F58">
-        <v>-0.5946672222031589</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.06479796174522816</v>
+      </c>
+      <c r="G58">
+        <v>-0.1601715338037895</v>
+      </c>
+      <c r="H58">
+        <v>-0.1001455360784384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07540392958628435</v>
+        <v>0.1987996841005496</v>
       </c>
       <c r="C59">
-        <v>0.04033009165745087</v>
+        <v>-0.1770569580347099</v>
       </c>
       <c r="D59">
-        <v>0.1864608663443066</v>
+        <v>-0.02601525229271947</v>
       </c>
       <c r="E59">
-        <v>-0.07433070564708506</v>
+        <v>-0.02257684104708721</v>
       </c>
       <c r="F59">
-        <v>-0.04720862018429147</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01277267289528777</v>
+      </c>
+      <c r="G59">
+        <v>-0.002264802865734173</v>
+      </c>
+      <c r="H59">
+        <v>0.01533798029415142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1729308639731068</v>
+        <v>0.2526349772930243</v>
       </c>
       <c r="C60">
-        <v>0.08341267461033981</v>
+        <v>0.1011257267756708</v>
       </c>
       <c r="D60">
-        <v>0.02370907041915056</v>
+        <v>-0.009880415747879094</v>
       </c>
       <c r="E60">
-        <v>-0.03946278583219941</v>
+        <v>0.04892567840709951</v>
       </c>
       <c r="F60">
-        <v>-0.1279882262847704</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1137911281619263</v>
+      </c>
+      <c r="G60">
+        <v>-0.1505726345073439</v>
+      </c>
+      <c r="H60">
+        <v>0.3868105694497369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02886297432856174</v>
+        <v>0.01055241102678285</v>
       </c>
       <c r="C61">
-        <v>0.002060406231669784</v>
+        <v>0.06450770825071507</v>
       </c>
       <c r="D61">
-        <v>-0.04417497061316848</v>
+        <v>0.003832334645815687</v>
       </c>
       <c r="E61">
-        <v>0.003659891277721696</v>
+        <v>0.0104027056901436</v>
       </c>
       <c r="F61">
-        <v>-0.02709241794416349</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.006953925983357681</v>
+      </c>
+      <c r="G61">
+        <v>-0.02097654921670045</v>
+      </c>
+      <c r="H61">
+        <v>0.04596993356083127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01924870748503926</v>
+        <v>0.006729740636486538</v>
       </c>
       <c r="C63">
-        <v>-0.006668706855743624</v>
+        <v>0.02356243551895586</v>
       </c>
       <c r="D63">
-        <v>-0.01766823160074492</v>
+        <v>0.006744464415037569</v>
       </c>
       <c r="E63">
-        <v>0.005861257976625072</v>
+        <v>0.01764722368000568</v>
       </c>
       <c r="F63">
-        <v>-0.01265286768786615</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.01979777399432391</v>
+      </c>
+      <c r="G63">
+        <v>-0.006201603217521682</v>
+      </c>
+      <c r="H63">
+        <v>0.0009625166183464139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04277444673212458</v>
+        <v>0.03576396924571193</v>
       </c>
       <c r="C64">
-        <v>0.0006964400002940014</v>
+        <v>0.04222051821134661</v>
       </c>
       <c r="D64">
-        <v>-0.02382632390969197</v>
+        <v>0.00207972352272182</v>
       </c>
       <c r="E64">
-        <v>0.006277101798069555</v>
+        <v>0.02082544347963274</v>
       </c>
       <c r="F64">
-        <v>-0.02822977006115068</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.009536211700601423</v>
+      </c>
+      <c r="G64">
+        <v>0.00594243121893298</v>
+      </c>
+      <c r="H64">
+        <v>0.0253077132664302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04873900264783818</v>
+        <v>0.04818279770998387</v>
       </c>
       <c r="C65">
-        <v>0.005780839871024672</v>
+        <v>0.08424681843850303</v>
       </c>
       <c r="D65">
-        <v>-0.03523420684382612</v>
+        <v>0.01297722163207193</v>
       </c>
       <c r="E65">
-        <v>0.0276588948505074</v>
+        <v>0.02647986698152989</v>
       </c>
       <c r="F65">
-        <v>-0.03585540499047029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.00941074028760905</v>
+      </c>
+      <c r="G65">
+        <v>-0.04474993687221588</v>
+      </c>
+      <c r="H65">
+        <v>0.04790067319070087</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04511537897365892</v>
+        <v>0.01189890867294197</v>
       </c>
       <c r="C66">
-        <v>0.01780238479355203</v>
+        <v>0.1171742403700301</v>
       </c>
       <c r="D66">
-        <v>-0.06160370358251985</v>
+        <v>0.009097293066688038</v>
       </c>
       <c r="E66">
-        <v>0.04364835880891377</v>
+        <v>0.01481361930250947</v>
       </c>
       <c r="F66">
-        <v>-0.06037361644158936</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.009071644315062601</v>
+      </c>
+      <c r="G66">
+        <v>-0.04454972682836278</v>
+      </c>
+      <c r="H66">
+        <v>0.06544271567215471</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03542102605175013</v>
+        <v>0.04902698297669501</v>
       </c>
       <c r="C67">
-        <v>0.006784379040355017</v>
+        <v>0.02635334924974522</v>
       </c>
       <c r="D67">
-        <v>0.01174406700512827</v>
+        <v>-0.009755506631832504</v>
       </c>
       <c r="E67">
-        <v>-0.02016329755356039</v>
+        <v>0.0116824121700944</v>
       </c>
       <c r="F67">
-        <v>-0.02535754307718212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01590235862791098</v>
+      </c>
+      <c r="G67">
+        <v>-0.01267907386118016</v>
+      </c>
+      <c r="H67">
+        <v>0.01230213437012044</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08465336684297392</v>
+        <v>0.1942012777528519</v>
       </c>
       <c r="C68">
-        <v>0.03610909898651302</v>
+        <v>-0.2211335525294363</v>
       </c>
       <c r="D68">
-        <v>0.2104436867302818</v>
+        <v>-0.006929318111095053</v>
       </c>
       <c r="E68">
-        <v>-0.08669407563888253</v>
+        <v>-0.03860534203128854</v>
       </c>
       <c r="F68">
-        <v>-0.01915009097142455</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.02860494594344667</v>
+      </c>
+      <c r="G68">
+        <v>0.03785066531303061</v>
+      </c>
+      <c r="H68">
+        <v>-0.02206975649430537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06298996147170897</v>
+        <v>0.05254342780793102</v>
       </c>
       <c r="C69">
-        <v>0.01510870635268382</v>
+        <v>0.05939258545256668</v>
       </c>
       <c r="D69">
-        <v>-0.02045041774346176</v>
+        <v>-0.01177138538962747</v>
       </c>
       <c r="E69">
-        <v>0.03163636501437724</v>
+        <v>0.02701062247799907</v>
       </c>
       <c r="F69">
-        <v>-0.01212479995773691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.008672597270976927</v>
+      </c>
+      <c r="G69">
+        <v>-0.001868393890410312</v>
+      </c>
+      <c r="H69">
+        <v>-0.01487446772418569</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08247372868087802</v>
+        <v>0.1759579242100578</v>
       </c>
       <c r="C71">
-        <v>0.02125079460584598</v>
+        <v>-0.1779601928343915</v>
       </c>
       <c r="D71">
-        <v>0.2021911292755346</v>
+        <v>-0.01316784868900673</v>
       </c>
       <c r="E71">
-        <v>-0.1259187702089882</v>
+        <v>-0.04437504356404776</v>
       </c>
       <c r="F71">
-        <v>0.005445875479660252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04093051253112307</v>
+      </c>
+      <c r="G71">
+        <v>0.04284510841998487</v>
+      </c>
+      <c r="H71">
+        <v>-0.005240810510672712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09877144112528607</v>
+        <v>0.0559715296777671</v>
       </c>
       <c r="C72">
-        <v>0.03187835340322159</v>
+        <v>0.09817701647802446</v>
       </c>
       <c r="D72">
-        <v>-0.0873712490655828</v>
+        <v>-0.01266960323096086</v>
       </c>
       <c r="E72">
-        <v>0.05343068061655865</v>
+        <v>0.03442241466149411</v>
       </c>
       <c r="F72">
-        <v>-0.1279013497624819</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02315192560509893</v>
+      </c>
+      <c r="G72">
+        <v>-0.05222725503860554</v>
+      </c>
+      <c r="H72">
+        <v>0.06337744344670104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2093893340895925</v>
+        <v>0.3283797799409487</v>
       </c>
       <c r="C73">
-        <v>0.1371119079494141</v>
+        <v>0.1604018834837958</v>
       </c>
       <c r="D73">
-        <v>-0.008128264369812779</v>
+        <v>-0.007121269859883002</v>
       </c>
       <c r="E73">
-        <v>-0.09110612899613077</v>
+        <v>0.04080206377885913</v>
       </c>
       <c r="F73">
-        <v>-0.1317695868250227</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1613258731244468</v>
+      </c>
+      <c r="G73">
+        <v>-0.1614825992368307</v>
+      </c>
+      <c r="H73">
+        <v>0.477582633742863</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1336017936173625</v>
+        <v>0.09928044230084535</v>
       </c>
       <c r="C74">
-        <v>0.03425113101392197</v>
+        <v>0.1343260643246173</v>
       </c>
       <c r="D74">
-        <v>-0.0370132725425049</v>
+        <v>-0.01603869927905077</v>
       </c>
       <c r="E74">
-        <v>0.08283290118811056</v>
+        <v>0.04418009300651828</v>
       </c>
       <c r="F74">
-        <v>0.0410923145074546</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.01300187340910083</v>
+      </c>
+      <c r="G74">
+        <v>0.009325370485070235</v>
+      </c>
+      <c r="H74">
+        <v>-0.06464882121292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2294690701120717</v>
+        <v>0.2171630322685118</v>
       </c>
       <c r="C75">
-        <v>0.07585673229079677</v>
+        <v>0.2201718941867092</v>
       </c>
       <c r="D75">
-        <v>-0.03044035644102805</v>
+        <v>-0.03830504821325095</v>
       </c>
       <c r="E75">
-        <v>0.2029027080168261</v>
+        <v>0.06553521190463173</v>
       </c>
       <c r="F75">
-        <v>0.03857826514208798</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.01969415774011819</v>
+      </c>
+      <c r="G75">
+        <v>-0.001691718881135703</v>
+      </c>
+      <c r="H75">
+        <v>-0.1911718148834422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2616914439346976</v>
+        <v>0.1414623750055775</v>
       </c>
       <c r="C76">
-        <v>0.06217609530605934</v>
+        <v>0.1856294849136159</v>
       </c>
       <c r="D76">
-        <v>-0.05237804030844965</v>
+        <v>-0.02972936692856361</v>
       </c>
       <c r="E76">
-        <v>0.2551845743073714</v>
+        <v>0.07783690554811959</v>
       </c>
       <c r="F76">
-        <v>0.09653015110958139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.01374134064882212</v>
+      </c>
+      <c r="G76">
+        <v>0.01133057887617329</v>
+      </c>
+      <c r="H76">
+        <v>-0.1538189591460984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09674318809947881</v>
+        <v>0.04562615008882054</v>
       </c>
       <c r="C77">
-        <v>0.03361355847363798</v>
+        <v>0.07943496295899373</v>
       </c>
       <c r="D77">
-        <v>-0.08098535010539387</v>
+        <v>0.01111687964743551</v>
       </c>
       <c r="E77">
-        <v>-0.07337697957004727</v>
+        <v>-0.02836734563953121</v>
       </c>
       <c r="F77">
-        <v>-0.05940604482596618</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01867984220309806</v>
+      </c>
+      <c r="G77">
+        <v>0.02333708427456613</v>
+      </c>
+      <c r="H77">
+        <v>0.003202833782154563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05563416775375738</v>
+        <v>0.02746700467749165</v>
       </c>
       <c r="C78">
-        <v>-0.002820129125744849</v>
+        <v>0.07191869059506442</v>
       </c>
       <c r="D78">
-        <v>-0.08828658070450304</v>
+        <v>0.004188625195832162</v>
       </c>
       <c r="E78">
-        <v>0.007545831943791494</v>
+        <v>-0.002392977296390668</v>
       </c>
       <c r="F78">
-        <v>-0.09480739863503908</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.01402337340999114</v>
+      </c>
+      <c r="G78">
+        <v>-0.02878193541332803</v>
+      </c>
+      <c r="H78">
+        <v>0.0666180997823678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.3727555748727147</v>
+        <v>0.07624737017675616</v>
       </c>
       <c r="C80">
-        <v>-0.9065313842268317</v>
+        <v>0.1105433626152898</v>
       </c>
       <c r="D80">
-        <v>0.02121680985450149</v>
+        <v>0.009863385351781523</v>
       </c>
       <c r="E80">
-        <v>-0.07309022915342428</v>
+        <v>0.08990549403026256</v>
       </c>
       <c r="F80">
-        <v>-0.01934549139359762</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.9438098917215842</v>
+      </c>
+      <c r="G80">
+        <v>0.03340590021444812</v>
+      </c>
+      <c r="H80">
+        <v>0.110549958925903</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1853391051525761</v>
+        <v>0.1298220433971944</v>
       </c>
       <c r="C81">
-        <v>0.05192995095265699</v>
+        <v>0.1353401061270824</v>
       </c>
       <c r="D81">
-        <v>-0.005950443571912488</v>
+        <v>-0.02224730829961668</v>
       </c>
       <c r="E81">
-        <v>0.1576235327580205</v>
+        <v>0.0356965106979266</v>
       </c>
       <c r="F81">
-        <v>0.02208820991334499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.009610981203975572</v>
+      </c>
+      <c r="G81">
+        <v>0.002939638224139147</v>
+      </c>
+      <c r="H81">
+        <v>-0.1177200511197384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.006023121215553762</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.003909751801564644</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0009481714972003177</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>0.01370645263784583</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.00269611030288102</v>
+      </c>
+      <c r="G82">
+        <v>-0.001010062008019523</v>
+      </c>
+      <c r="H82">
+        <v>0.001014882632604428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03761951847994453</v>
+        <v>0.02045669979610324</v>
       </c>
       <c r="C83">
-        <v>-2.579444022744275e-05</v>
+        <v>0.02179272025639394</v>
       </c>
       <c r="D83">
-        <v>-0.02187625899174265</v>
+        <v>0.00430606762955452</v>
       </c>
       <c r="E83">
-        <v>-0.03354359924554173</v>
+        <v>-0.02061946911915275</v>
       </c>
       <c r="F83">
-        <v>-0.04710609090038827</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.0257269628845178</v>
+      </c>
+      <c r="G83">
+        <v>-0.01208230903453071</v>
+      </c>
+      <c r="H83">
+        <v>0.03851561449868313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2378679197250909</v>
+        <v>0.211303893622583</v>
       </c>
       <c r="C85">
-        <v>0.08060616937117515</v>
+        <v>0.2256162796607452</v>
       </c>
       <c r="D85">
-        <v>-0.05421779848857628</v>
+        <v>-0.02627574463139779</v>
       </c>
       <c r="E85">
-        <v>0.2238145099742873</v>
+        <v>0.09331844026155119</v>
       </c>
       <c r="F85">
-        <v>0.06548731690987232</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.05377221877511776</v>
+      </c>
+      <c r="G85">
+        <v>-0.0002733042807756707</v>
+      </c>
+      <c r="H85">
+        <v>-0.1618709581268463</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01080091040098119</v>
+        <v>0.006958585144888754</v>
       </c>
       <c r="C86">
-        <v>-0.004213965374829447</v>
+        <v>0.03139097782510353</v>
       </c>
       <c r="D86">
-        <v>-0.04617116339620145</v>
+        <v>0.007984554946112518</v>
       </c>
       <c r="E86">
-        <v>-0.007721507222382981</v>
+        <v>-0.006845063385132004</v>
       </c>
       <c r="F86">
-        <v>-0.08748408746748883</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0314467556533696</v>
+      </c>
+      <c r="G86">
+        <v>0.001305638508901549</v>
+      </c>
+      <c r="H86">
+        <v>0.04631542677064372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02805299194744226</v>
+        <v>0.0007637800654075284</v>
       </c>
       <c r="C87">
-        <v>0.003273534143572539</v>
+        <v>0.03642972322063397</v>
       </c>
       <c r="D87">
-        <v>-0.04165975148893895</v>
+        <v>0.01013312022564627</v>
       </c>
       <c r="E87">
-        <v>-0.02372845098671806</v>
+        <v>-0.03825997709318751</v>
       </c>
       <c r="F87">
-        <v>-0.09073004581852918</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02204740316691643</v>
+      </c>
+      <c r="G87">
+        <v>-0.02406454689989378</v>
+      </c>
+      <c r="H87">
+        <v>0.06886674694188259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03565724791619806</v>
+        <v>0.04323482401722348</v>
       </c>
       <c r="C88">
-        <v>0.0008769352814093339</v>
+        <v>0.02142337035623359</v>
       </c>
       <c r="D88">
-        <v>0.01072483552073909</v>
+        <v>0.01840547585792933</v>
       </c>
       <c r="E88">
-        <v>0.008199996098929466</v>
+        <v>0.00511210599942316</v>
       </c>
       <c r="F88">
-        <v>0.002338987735937788</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.02270953913602992</v>
+      </c>
+      <c r="G88">
+        <v>-0.008058693238695036</v>
+      </c>
+      <c r="H88">
+        <v>-0.01437153663409003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1359929255379802</v>
+        <v>0.3033983831572497</v>
       </c>
       <c r="C89">
-        <v>0.07571954778439767</v>
+        <v>-0.3071069986734588</v>
       </c>
       <c r="D89">
-        <v>0.3641572388985069</v>
+        <v>-0.0219469715858465</v>
       </c>
       <c r="E89">
-        <v>-0.09239644782950766</v>
+        <v>-0.02094731171219105</v>
       </c>
       <c r="F89">
-        <v>-0.037347786447271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01380609810525075</v>
+      </c>
+      <c r="G89">
+        <v>0.02637515992933255</v>
+      </c>
+      <c r="H89">
+        <v>-0.02759080575774341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08851391770656235</v>
+        <v>0.2493705707978241</v>
       </c>
       <c r="C90">
-        <v>0.05607711146801795</v>
+        <v>-0.2772991046436376</v>
       </c>
       <c r="D90">
-        <v>0.3253017508841745</v>
+        <v>-0.02031522319082251</v>
       </c>
       <c r="E90">
-        <v>-0.1038306964365822</v>
+        <v>-0.03825157233854809</v>
       </c>
       <c r="F90">
-        <v>0.01970652492448574</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01307704614453371</v>
+      </c>
+      <c r="G90">
+        <v>0.05133558918633707</v>
+      </c>
+      <c r="H90">
+        <v>-0.05814931277890809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2766388429210832</v>
+        <v>0.1891734364839361</v>
       </c>
       <c r="C91">
-        <v>0.1025853044505962</v>
+        <v>0.1835477557969392</v>
       </c>
       <c r="D91">
-        <v>-0.06256280833228277</v>
+        <v>-0.03345744331741499</v>
       </c>
       <c r="E91">
-        <v>0.2304452626809449</v>
+        <v>0.06657117244230713</v>
       </c>
       <c r="F91">
-        <v>0.1506242400661601</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.01544471476493964</v>
+      </c>
+      <c r="G91">
+        <v>0.03777290777592922</v>
+      </c>
+      <c r="H91">
+        <v>-0.1928268306335416</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1795318942489757</v>
+        <v>0.2712464514513562</v>
       </c>
       <c r="C92">
-        <v>0.08493380614366135</v>
+        <v>-0.2000277400518307</v>
       </c>
       <c r="D92">
-        <v>0.388718983543875</v>
+        <v>-0.06313467815726201</v>
       </c>
       <c r="E92">
-        <v>-0.01309093402636014</v>
+        <v>-0.03708672050831271</v>
       </c>
       <c r="F92">
-        <v>0.05173606625983521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.04738984732156567</v>
+      </c>
+      <c r="G92">
+        <v>0.02468105835752584</v>
+      </c>
+      <c r="H92">
+        <v>-0.1305166541858577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1267702885290314</v>
+        <v>0.2903666171146657</v>
       </c>
       <c r="C93">
-        <v>0.09008526596994224</v>
+        <v>-0.2631669147871777</v>
       </c>
       <c r="D93">
-        <v>0.3829363115170849</v>
+        <v>-0.03018832239927676</v>
       </c>
       <c r="E93">
-        <v>-0.1540844268757521</v>
+        <v>-0.04289820227233569</v>
       </c>
       <c r="F93">
-        <v>0.05144912211908187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0006661475642925721</v>
+      </c>
+      <c r="G93">
+        <v>0.04390199121834038</v>
+      </c>
+      <c r="H93">
+        <v>-0.00117294708841723</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2840086041859831</v>
+        <v>0.241069522827508</v>
       </c>
       <c r="C94">
-        <v>0.126594191911659</v>
+        <v>0.2306691359103643</v>
       </c>
       <c r="D94">
-        <v>-0.009316640157549346</v>
+        <v>-0.02397410345600834</v>
       </c>
       <c r="E94">
-        <v>0.2954671483041227</v>
+        <v>0.08947025581531411</v>
       </c>
       <c r="F94">
-        <v>0.02319828392590756</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.083834878525772</v>
+      </c>
+      <c r="G94">
+        <v>-0.03513750860827148</v>
+      </c>
+      <c r="H94">
+        <v>-0.4504896712554735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06251034481000792</v>
+        <v>0.0500731983150725</v>
       </c>
       <c r="C95">
-        <v>0.06776328574362839</v>
+        <v>0.09117543655398985</v>
       </c>
       <c r="D95">
-        <v>-0.03221945518476708</v>
+        <v>-0.0118376497553722</v>
       </c>
       <c r="E95">
-        <v>0.006393438869401937</v>
+        <v>-0.03462048656936275</v>
       </c>
       <c r="F95">
-        <v>-0.04061403622445274</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.05612505163643245</v>
+      </c>
+      <c r="G95">
+        <v>0.001062676087584552</v>
+      </c>
+      <c r="H95">
+        <v>0.05751537231669998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1730140542409804</v>
+        <v>0.1934877513929037</v>
       </c>
       <c r="C98">
-        <v>0.08877263012239274</v>
+        <v>0.07038951198855489</v>
       </c>
       <c r="D98">
-        <v>0.03597935816247993</v>
+        <v>-0.03032509610673494</v>
       </c>
       <c r="E98">
-        <v>-0.1011264258495048</v>
+        <v>-0.01717744232657266</v>
       </c>
       <c r="F98">
-        <v>-0.1230206860622764</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.06912302804899775</v>
+      </c>
+      <c r="G98">
+        <v>-0.06547609406472679</v>
+      </c>
+      <c r="H98">
+        <v>0.3031723355147675</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007808361156189566</v>
+        <v>0.002708900571499213</v>
       </c>
       <c r="C101">
-        <v>-0.009806138220384002</v>
+        <v>0.01953646336666474</v>
       </c>
       <c r="D101">
-        <v>-0.03676559179440827</v>
+        <v>0.007327596206571245</v>
       </c>
       <c r="E101">
-        <v>-0.04130098618633915</v>
+        <v>-0.03000620197407755</v>
       </c>
       <c r="F101">
-        <v>-0.1808515098019024</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.03218063943863908</v>
+      </c>
+      <c r="G101">
+        <v>-0.02798341361466851</v>
+      </c>
+      <c r="H101">
+        <v>1.975061164105786e-05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1192594918415743</v>
+        <v>0.1063893711286205</v>
       </c>
       <c r="C102">
-        <v>0.03767570207061458</v>
+        <v>0.1052164262784648</v>
       </c>
       <c r="D102">
-        <v>-0.02165086749587449</v>
+        <v>-0.005732491459300456</v>
       </c>
       <c r="E102">
-        <v>0.1127346001435953</v>
+        <v>0.04970380158541467</v>
       </c>
       <c r="F102">
-        <v>0.06006482226752104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01728525238970817</v>
+      </c>
+      <c r="G102">
+        <v>-0.001357428447388915</v>
+      </c>
+      <c r="H102">
+        <v>-0.07215719743907348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04055525244690266</v>
+        <v>0.008982089083038419</v>
       </c>
       <c r="C103">
-        <v>-0.009171011443010264</v>
+        <v>0.01240289331778673</v>
       </c>
       <c r="D103">
-        <v>-0.01237636350997339</v>
+        <v>-0.0004376700233300296</v>
       </c>
       <c r="E103">
-        <v>0.03292680363556703</v>
+        <v>0.001201701294013898</v>
       </c>
       <c r="F103">
-        <v>-0.008384063177618362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0201904049535389</v>
+      </c>
+      <c r="G103">
+        <v>0.001489428925727819</v>
+      </c>
+      <c r="H103">
+        <v>-0.01082606950285785</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.08885427590591036</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.04241213225900137</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9811366914152299</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.04379461789109786</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.009488251120125893</v>
+      </c>
+      <c r="G104">
+        <v>-0.105853180155249</v>
+      </c>
+      <c r="H104">
+        <v>-0.06912913038453584</v>
       </c>
     </row>
   </sheetData>
